--- a/src/main/resources/template/excel/export/StockReimburseSecondCategory.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburseSecondCategory.xlsx
@@ -94,18 +94,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(C3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(D3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(E3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>报损数量</t>
   </si>
   <si>
@@ -113,6 +101,18 @@
   </si>
   <si>
     <t>报损查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(C3:C3:C3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D3:D3:D3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3:E3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +570,7 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:130" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -723,10 +723,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -880,13 +880,13 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
